--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\AutomationUsingSelenium\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\workspace\PageObjectModelFramework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA3193D-1A5A-4DA8-B35E-E1358604E4ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1204FD-E923-4FEF-8E50-9A293B94306F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{896CB679-BE82-4FC8-8EDB-A9B4BE5E2C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="testCasesMode" sheetId="3" r:id="rId1"/>
-    <sheet name="UserData" sheetId="1" r:id="rId2"/>
+    <sheet name="SignInData" sheetId="1" r:id="rId2"/>
     <sheet name="AccountData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>firstname</t>
   </si>
@@ -35,27 +35,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>nayan</t>
-  </si>
-  <si>
-    <t>gogoi</t>
-  </si>
-  <si>
-    <t>pcode</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>nayan gogoi</t>
-  </si>
-  <si>
-    <t>Rupee</t>
-  </si>
-  <si>
     <t>testname</t>
   </si>
   <si>
@@ -65,38 +44,58 @@
     <t>Y</t>
   </si>
   <si>
-    <t>niva</t>
-  </si>
-  <si>
-    <t>kalita</t>
-  </si>
-  <si>
-    <t>mohimabari</t>
-  </si>
-  <si>
-    <t>jorhat</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>openAccount</t>
-  </si>
-  <si>
-    <t>addCustomer</t>
-  </si>
-  <si>
-    <t>loginAsBankManager</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>nayangogoi744@gmail.com</t>
+  </si>
+  <si>
+    <t>SAG*@dem01234</t>
+  </si>
+  <si>
+    <t>nivakalita744@gmail.com</t>
+  </si>
+  <si>
+    <t>kalitaniva@1234</t>
+  </si>
+  <si>
+    <t>Nayan Jyoti</t>
+  </si>
+  <si>
+    <t>Gogoi</t>
+  </si>
+  <si>
+    <t>newpassword</t>
+  </si>
+  <si>
+    <t>loginTest</t>
+  </si>
+  <si>
+    <t>changeAccInformation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,13 +118,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EC5A15-46ED-4019-B808-7AFDDA2E9A66}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,34 +453,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -488,73 +482,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4CBD2D-FEC9-40B1-8A07-6D604C5C9F41}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>123455</v>
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>443343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>467833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>785631</v>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3A21478A-4173-453A-9C83-150D81FF21FD}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{4EA28CC2-D542-49D8-82B8-A6F9310F3E1E}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{7A0B2EDC-ACBB-439B-B5DF-0D88223B53E3}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{1A503EB4-C712-44B9-AD14-07B88235FFD9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -564,7 +544,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,18 +554,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
